--- a/src/test/resources/input.xlsx
+++ b/src/test/resources/input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidData" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -29,19 +29,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">sumans1826@gmail.com</t>
+    <t xml:space="preserve">sumanautomation97@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">suman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sumansr186@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sumanshankar1997@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sumanautomation97@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -51,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -72,6 +63,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Monospace"/>
       <family val="0"/>
     </font>
     <font>
@@ -124,12 +121,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -152,7 +153,7 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF2A00FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
@@ -216,16 +217,16 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="76.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -236,34 +237,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -271,14 +272,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="sumans1826@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="sumansr186@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="sumanshankar1997@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="sumanautomation97@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="sumanautomation97@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="sumanautomation97@gmail.com"/>
     <hyperlink ref="A5" r:id="rId4" display="sumanautomation97@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -293,18 +294,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
